--- a/config_3.9/act_ty_phb_config.xlsx
+++ b/config_3.9/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>line|</t>
   </si>
@@ -97,11 +97,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_006_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsj_007_mgbd_rank</t>
+    <t>kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_007_dlphb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外奖励|extra_award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +139,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,7 +212,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,12 +538,13 @@
     <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="56.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="56.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,14 +569,17 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -572,23 +593,26 @@
         <v>21</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="8">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="G2" s="8">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -598,10 +622,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -611,11 +636,12 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I9" s="2" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -628,10 +654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,8 +682,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>100000</v>
+      <c r="B2" s="11">
+        <v>50000</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -667,8 +693,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>30000</v>
+      <c r="B3" s="11">
+        <v>15000</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -678,8 +704,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>10000</v>
+      <c r="B4" s="11">
+        <v>5000</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -689,8 +715,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3000</v>
+      <c r="B5" s="11">
+        <v>1500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -700,8 +726,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2000</v>
+      <c r="B6" s="11">
+        <v>1000</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -711,8 +737,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>1000</v>
+      <c r="B7" s="11">
+        <v>500</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -722,10 +748,87 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
+        <v>240</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
         <v>500</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/config_3.9/act_ty_phb_config.xlsx
+++ b/config_3.9/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -78,38 +78,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>is_on_off</t>
+  </si>
+  <si>
+    <t>item_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_007_dlphb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外奖励|extra_award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_on_off</t>
-  </si>
-  <si>
-    <t>item_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh315_008_lhphb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_007_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外奖励|extra_award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,11,12,13,14</t>
+    <t>8,9,10,11,12,13,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,13 +549,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>17</v>
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8">
         <v>1615248000</v>
@@ -602,13 +602,13 @@
         <v>1615823999</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -642,7 +642,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_3.9/act_ty_phb_config.xlsx
+++ b/config_3.9/act_ty_phb_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440"/>
+    <workbookView windowWidth="21285" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,24 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>line|</t>
   </si>
   <si>
+    <t>is_on_off</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>item_key</t>
+  </si>
+  <si>
+    <t>rank_type|排行榜类型</t>
+  </si>
+  <si>
+    <t>s_time|开始时间</t>
+  </si>
+  <si>
+    <t>e_time|结束时间</t>
+  </si>
+  <si>
+    <t>award|奖励</t>
+  </si>
+  <si>
+    <t>额外奖励|extra_award</t>
+  </si>
+  <si>
+    <t>path|路径</t>
+  </si>
+  <si>
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>rank_type|排行榜类型</t>
-  </si>
-  <si>
-    <t>s_time|开始时间</t>
-  </si>
-  <si>
-    <t>e_time|结束时间</t>
-  </si>
-  <si>
-    <t>award|奖励</t>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>kh315_008_lhphb_rank</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>act_007_dlphb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ID|</t>
@@ -49,6 +77,9 @@
     <t>limit|名次范围</t>
   </si>
   <si>
+    <t>condition|额外奖励条件</t>
+  </si>
+  <si>
     <t>1,1,</t>
   </si>
   <si>
@@ -70,54 +101,38 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path|路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_on_off</t>
-  </si>
-  <si>
-    <t>item_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh315_008_lhphb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_007_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外奖励|extra_award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,9,10,11,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>礼盒数达到300万</t>
+  </si>
+  <si>
+    <t>礼盒数达到180万</t>
+  </si>
+  <si>
+    <t>礼盒数达到90万</t>
+  </si>
+  <si>
+    <t>礼盒数达到45万</t>
+  </si>
+  <si>
+    <t>礼盒数达到30万</t>
+  </si>
+  <si>
+    <t>礼盒数达到18万</t>
+  </si>
+  <si>
+    <t>礼盒数达到9万</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,17 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -144,10 +151,154 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,7 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,8 +317,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,61 +512,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -278,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,325 +1142,351 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H27" sqref="H27:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="56.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="58.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1615248000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1615823999</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:12">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:12">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1615248000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1615823999</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.1" customHeight="1" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="3">
+        <v>500</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B8" s="3">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="B9" s="3">
         <v>50000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="B10" s="3">
         <v>15000</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="B11" s="3">
         <v>5000</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="B12" s="3">
         <v>1500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="B13" s="3">
         <v>1000</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="B14" s="3">
         <v>500</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="B15" s="3">
         <v>240</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>50000</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>500</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>240</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>